--- a/doc/BLOG_ERD_Design.xlsx
+++ b/doc/BLOG_ERD_Design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>username</t>
   </si>
@@ -56,9 +56,6 @@
     <t>comments</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>users</t>
   </si>
   <si>
@@ -66,13 +63,175 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>BLOG-ERD-DESIGN</t>
+  </si>
+  <si>
+    <t>ENTITY :USERS</t>
+  </si>
+  <si>
+    <t>User id</t>
+  </si>
+  <si>
+    <t>The id was used to differentiate with others.</t>
+  </si>
+  <si>
+    <t>The username for login into system</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>ENTITY :POSTS</t>
+  </si>
+  <si>
+    <t>Post id</t>
+  </si>
+  <si>
+    <t>The id of post used to differentiate with others.</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>The title of post</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>The content of post</t>
+  </si>
+  <si>
+    <t>Date time of the post created</t>
+  </si>
+  <si>
+    <t>Modified at</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>Date time of the post modified</t>
+  </si>
+  <si>
+    <t>ENTITY :COMMENTS</t>
+  </si>
+  <si>
+    <t>Comment id</t>
+  </si>
+  <si>
+    <t>The id of comment</t>
+  </si>
+  <si>
+    <t>Content of the comment</t>
+  </si>
+  <si>
+    <t>Date time of the comment created</t>
+  </si>
+  <si>
+    <t>Date time of the comment modified</t>
+  </si>
+  <si>
+    <t>(1,1)</t>
+  </si>
+  <si>
+    <t>(1,n)</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(id, username, password, email, lastname, firstname)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>posts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(id, title, content,  created_at, modified_at, author_id)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(id, content, created_at, modified_at, author_id, post_id)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,16 +239,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -115,41 +310,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
+      <border>
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -172,6 +489,29 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -187,6 +527,65 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -206,26 +605,162 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2276475</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>204788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3800475" y="6667500"/>
+          <a:ext cx="1238250" cy="471488"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2295525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="7086602"/>
+          <a:ext cx="828675" cy="838198"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="34" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3800475" y="7839076"/>
+          <a:ext cx="1247775" cy="409574"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Diamond 3"/>
+        <xdr:cNvPr id="12" name="Diamond 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3333750" y="4019549"/>
-          <a:ext cx="1098176" cy="447675"/>
+          <a:off x="2762250" y="6905625"/>
+          <a:ext cx="1038225" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -248,7 +783,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -257,32 +792,80 @@
             <a:t>post</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>269501</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="7124700"/>
+          <a:ext cx="1343025" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Diamond 4"/>
+        <xdr:cNvPr id="34" name="Diamond 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="4019549"/>
-          <a:ext cx="1098176" cy="447675"/>
+          <a:off x="2762250" y="7629526"/>
+          <a:ext cx="1038225" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -305,7 +888,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -314,34 +897,38 @@
             <a:t>post</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvPr id="35" name="Straight Connector 34"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="4" idx="1"/>
+          <a:endCxn id="34" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2266950" y="4052887"/>
-          <a:ext cx="638175" cy="4763"/>
+        <a:xfrm>
+          <a:off x="1524000" y="7839075"/>
+          <a:ext cx="1238250" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -364,146 +951,67 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Connector 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3914775" y="3995738"/>
-          <a:ext cx="914400" cy="52387"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2762250" y="8010525"/>
+          <a:ext cx="2314575" cy="219075"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Connector 7"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6067425" y="3990976"/>
-          <a:ext cx="1314450" cy="76199"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>269501</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Connector 9"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8299076" y="3990975"/>
-          <a:ext cx="987799" cy="61912"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="H19:H25" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="H19:H25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A32:A38" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A32:A38"/>
   <tableColumns count="1">
     <tableColumn id="1" name="users"/>
   </tableColumns>
@@ -512,20 +1020,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C19:C24" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="C19:C24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="D37:D41" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="D37:D41"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="posts"/>
+    <tableColumn id="1" name="comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="N19:N23" totalsRowShown="0" tableBorderDxfId="0">
-  <autoFilter ref="N19:N23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D28:D33" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="D28:D33"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="comments"/>
+    <tableColumn id="1" name="posts"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -794,22 +1302,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="18.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
     <col min="10" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="16.85546875" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
@@ -838,200 +1346,436 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="A16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="C20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="1" t="s">
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="1" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N23" s="1" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+    </row>
+    <row r="44" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="F44" s="25"/>
+    </row>
+    <row r="45" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="32"/>
+    </row>
+    <row r="46" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="35"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E48" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A19:C19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="3">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/doc/BLOG_ERD_Design.xlsx
+++ b/doc/BLOG_ERD_Design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>username</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>(1,1)</t>
-  </si>
-  <si>
-    <t>(1,n)</t>
   </si>
   <si>
     <t>Tables</t>
@@ -225,6 +222,9 @@
       </rPr>
       <t>(id, content, created_at, modified_at, author_id, post_id)</t>
     </r>
+  </si>
+  <si>
+    <t>(0,n)</t>
   </si>
 </sst>
 </file>
@@ -386,21 +386,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -458,6 +443,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +488,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -548,29 +547,30 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
+      <border>
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -951,66 +951,164 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 41"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Diamond 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2762250" y="8010525"/>
-          <a:ext cx="2314575" cy="219075"/>
+          <a:off x="7143750" y="7239000"/>
+          <a:ext cx="1038225" cy="466725"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="diamond">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>have</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="6419850"/>
+          <a:ext cx="1462088" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6200775" y="7705725"/>
+          <a:ext cx="1462088" cy="733426"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A32:A38" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A32:A38" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A32:A38"/>
   <tableColumns count="1">
     <tableColumn id="1" name="users"/>
@@ -1020,7 +1118,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="D37:D41" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="D37:D41" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
   <autoFilter ref="D37:D41"/>
   <tableColumns count="1">
     <tableColumn id="1" name="comments"/>
@@ -1304,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,35 +1445,35 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
@@ -1457,11 +1555,11 @@
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
@@ -1541,11 +1639,11 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1617,15 +1715,15 @@
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="6" t="s">
@@ -1641,17 +1739,20 @@
       <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="22" t="s">
-        <v>42</v>
+      <c r="C31" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1702,9 +1803,12 @@
       <c r="D38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="22"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1713,6 +1817,9 @@
       <c r="D40" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
@@ -1720,40 +1827,40 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G42" s="24"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-    </row>
-    <row r="44" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="F44" s="25"/>
-    </row>
-    <row r="45" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+    </row>
+    <row r="46" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="32"/>
-    </row>
-    <row r="46" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="35"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>

--- a/doc/BLOG_ERD_Design.xlsx
+++ b/doc/BLOG_ERD_Design.xlsx
@@ -53,24 +53,12 @@
     <t>modified_at</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>posts</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>BLOG-ERD-DESIGN</t>
   </si>
   <si>
-    <t>ENTITY :USERS</t>
-  </si>
-  <si>
     <t>User id</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t>First name</t>
   </si>
   <si>
-    <t>ENTITY :POSTS</t>
-  </si>
-  <si>
     <t>Post id</t>
   </si>
   <si>
@@ -131,9 +116,6 @@
     <t>Date time of the post modified</t>
   </si>
   <si>
-    <t>ENTITY :COMMENTS</t>
-  </si>
-  <si>
     <t>Comment id</t>
   </si>
   <si>
@@ -153,6 +135,27 @@
   </si>
   <si>
     <t>Tables</t>
+  </si>
+  <si>
+    <t>(0,n)</t>
+  </si>
+  <si>
+    <t>ENTITY :USER</t>
+  </si>
+  <si>
+    <t>ENTITY :POST</t>
+  </si>
+  <si>
+    <t>ENTITY :COMMENT</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
   <si>
     <r>
@@ -164,7 +167,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>users</t>
+      <t>user</t>
     </r>
     <r>
       <rPr>
@@ -187,7 +190,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>posts</t>
+      <t>post</t>
     </r>
     <r>
       <rPr>
@@ -210,7 +213,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>comments</t>
+      <t>comment</t>
     </r>
     <r>
       <rPr>
@@ -222,9 +225,6 @@
       </rPr>
       <t>(id, content, created_at, modified_at, author_id, post_id)</t>
     </r>
-  </si>
-  <si>
-    <t>(0,n)</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1111,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A32:A38" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A32:A38"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="users"/>
+    <tableColumn id="1" name="user"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1121,7 +1121,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="D37:D41" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
   <autoFilter ref="D37:D41"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="comments"/>
+    <tableColumn id="1" name="comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1131,7 +1131,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D28:D33" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
   <autoFilter ref="D28:D33"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="posts"/>
+    <tableColumn id="1" name="post"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1402,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -1479,33 +1479,33 @@
     </row>
     <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>1</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>2</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>4</v>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
@@ -1565,52 +1565,52 @@
     </row>
     <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1618,13 +1618,13 @@
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="35"/>
@@ -1650,13 +1650,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1664,13 +1664,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1678,13 +1678,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1727,12 +1727,12 @@
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="6" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1740,12 +1740,12 @@
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="17" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>6</v>
@@ -1753,18 +1753,18 @@
     </row>
     <row r="32" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>8</v>
@@ -1790,10 +1790,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1801,13 +1801,13 @@
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" s="17" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>6</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D40" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="44" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="45" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="46" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
